--- a/SimulationStudyData/Model3/Dataset17_zsim_Run4.xlsx
+++ b/SimulationStudyData/Model3/Dataset17_zsim_Run4.xlsx
@@ -363,7 +363,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -378,7 +378,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -388,7 +388,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
@@ -398,7 +398,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
@@ -408,7 +408,7 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14">
@@ -438,22 +438,22 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23">
@@ -468,17 +468,17 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -488,7 +488,7 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -513,7 +513,7 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35">
@@ -523,7 +523,7 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37">
@@ -538,7 +538,7 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40">
@@ -568,12 +568,12 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47">
@@ -593,7 +593,7 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51">
@@ -608,7 +608,7 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54">
@@ -618,12 +618,12 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57">
@@ -633,7 +633,7 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59">
@@ -653,7 +653,7 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63">
@@ -663,7 +663,7 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -678,7 +678,7 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68">
@@ -688,12 +688,12 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71">
@@ -708,12 +708,12 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="75">
@@ -728,7 +728,7 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78">
@@ -748,17 +748,17 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="84">
@@ -768,7 +768,7 @@
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="86">
@@ -778,12 +778,12 @@
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="89">
@@ -793,17 +793,17 @@
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93">
@@ -813,17 +813,17 @@
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97">
@@ -833,22 +833,22 @@
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="102">
@@ -868,7 +868,7 @@
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="106">
@@ -888,7 +888,7 @@
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="110">
@@ -903,7 +903,7 @@
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="113">
@@ -918,7 +918,7 @@
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="116">
@@ -933,7 +933,7 @@
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="119">
@@ -983,7 +983,7 @@
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="129">
@@ -998,7 +998,7 @@
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="132">
@@ -1018,7 +1018,7 @@
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="136">
@@ -1048,7 +1048,7 @@
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="142">
@@ -1073,17 +1073,17 @@
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="149">
@@ -1093,7 +1093,7 @@
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="151">
@@ -1123,7 +1123,7 @@
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="157">
@@ -1153,12 +1153,12 @@
     </row>
     <row r="162">
       <c r="A162" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="164">
@@ -1168,12 +1168,12 @@
     </row>
     <row r="165">
       <c r="A165" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="167">
@@ -1188,12 +1188,12 @@
     </row>
     <row r="169">
       <c r="A169" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="171">
@@ -1203,12 +1203,12 @@
     </row>
     <row r="172">
       <c r="A172" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="174">
@@ -1228,12 +1228,12 @@
     </row>
     <row r="177">
       <c r="A177" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="179">
@@ -1253,17 +1253,17 @@
     </row>
     <row r="182">
       <c r="A182" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="185">
@@ -1273,12 +1273,12 @@
     </row>
     <row r="186">
       <c r="A186" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="188">
@@ -1288,7 +1288,7 @@
     </row>
     <row r="189">
       <c r="A189" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="190">
@@ -1298,12 +1298,12 @@
     </row>
     <row r="191">
       <c r="A191" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="193">
@@ -1313,7 +1313,7 @@
     </row>
     <row r="194">
       <c r="A194" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="195">
@@ -1323,17 +1323,17 @@
     </row>
     <row r="196">
       <c r="A196" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="199">
@@ -1343,7 +1343,7 @@
     </row>
     <row r="200">
       <c r="A200" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="201">
